--- a/Planilha de Investimentos.xlsx
+++ b/Planilha de Investimentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe.reis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87DDEC32-0D4F-4D79-86F2-FD74B11EB2F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FCA290-B623-4DB6-BAB6-B59053E0E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="266" activeTab="1" xr2:uid="{E86D4429-3B08-4028-94DB-EFDDAD321967}"/>
   </bookViews>
